--- a/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
+++ b/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0AACE-9BBA-466E-9AFC-13BE93DE696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E985B-CD8B-43AC-B379-33DC8BD1D440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
+++ b/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5E985B-CD8B-43AC-B379-33DC8BD1D440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9EE61-8D5A-4F3B-84DC-22488B25A26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -95,23 +95,6 @@
   </si>
   <si>
     <t>Bondtech_Shaft_assembly v1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">From BMG Extruder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*NOTE* Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
-    </r>
   </si>
   <si>
     <t>Bondtech_Thumbscrew_assembly v1</t>
@@ -362,12 +345,40 @@
   <si>
     <t>HextrudORT_BODY_MOSQUITO</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From BMG Extruder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*NOTE*
+1 - Some BMG clone have a 4mm thick gear, they will not fit.
+  Verified sources are: 
+  a) Original BMG from BondTech
+  b) https://s.click.aliexpress.com/e/_Ao9yaZ
+2 -  Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_Ao9yaZ</t>
+  </si>
+  <si>
+    <t>Triangle Lab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +484,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,10 +615,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,8 +675,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1987,24 +2011,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="76" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="42.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2039,9 +2063,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
@@ -2065,18 +2089,22 @@
       <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
@@ -2094,12 +2122,16 @@
       <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>19</v>
@@ -2121,14 +2153,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>19</v>
@@ -2138,7 +2174,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>22</v>
@@ -2152,12 +2188,16 @@
       <c r="I5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>19</v>
@@ -2167,7 +2207,7 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>6</v>
@@ -2181,12 +2221,16 @@
       <c r="I6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>19</v>
@@ -2196,10 +2240,10 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>19</v>
@@ -2208,72 +2252,80 @@
         <v>1</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -2283,7 +2335,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>11</v>
@@ -2295,14 +2347,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>19</v>
@@ -2312,10 +2364,10 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>19</v>
@@ -2324,14 +2376,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -2341,7 +2393,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="10" t="s">
@@ -2354,25 +2406,25 @@
       <c r="J12" s="12"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="15">
         <v>2</v>
@@ -2381,22 +2433,22 @@
       <c r="J13" s="18"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="11">
         <v>13</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>19</v>
@@ -2408,25 +2460,25 @@
       <c r="J14" s="12"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="15">
         <v>1</v>
@@ -2435,25 +2487,25 @@
       <c r="J15" s="18"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
@@ -2462,25 +2514,25 @@
       <c r="J16" s="18"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -2489,19 +2541,19 @@
       <c r="J17" s="18"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>10</v>
@@ -2510,29 +2562,29 @@
         <v>20</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>10</v>
@@ -2541,27 +2593,27 @@
         <v>20</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>10</v>
@@ -2570,17 +2622,17 @@
         <v>20</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -2600,14 +2652,14 @@
         <v>1</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>20</v>
@@ -2627,14 +2679,14 @@
         <v>1</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>20</v>
@@ -2644,7 +2696,7 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>10</v>
@@ -2654,19 +2706,26 @@
         <v>1</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{B8E05254-F43C-4F93-BF3A-79EFB7A7EBFC}"/>
+    <hyperlink ref="K2:K3" r:id="rId2" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{70EEC5A3-CBB5-446F-B3A9-CAA0290AE610}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{940C08FB-2102-40EF-BC23-8512C5E2705E}"/>
+    <hyperlink ref="K6:K7" r:id="rId4" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{BCB230E6-71B7-4789-A1FA-42C6AFADE7FB}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{021A1B57-C335-4B2F-8D27-C7AC8DB07F25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\BOM_HextrudORT_Extruder_Mosquito.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
+++ b/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9EE61-8D5A-4F3B-84DC-22488B25A26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1A5F6-549A-4026-A5CD-5F91AE6A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Vendor URL</t>
   </si>
   <si>
-    <t>Comes with BMG</t>
-  </si>
-  <si>
-    <t>Make From BMG arm pin</t>
-  </si>
-  <si>
     <t>HextrudORT_TENSION_ARM</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Comes with BMG clones</t>
   </si>
   <si>
-    <t>SetScrew_M3X2_92605A097</t>
-  </si>
-  <si>
     <t>SubAssy</t>
   </si>
   <si>
@@ -85,18 +76,9 @@
     <t>MAKE</t>
   </si>
   <si>
-    <t>Bondetech mini gears v1</t>
-  </si>
-  <si>
-    <t>From BMG extruder</t>
-  </si>
-  <si>
     <t>From BMG Extruder</t>
   </si>
   <si>
-    <t>Bondtech_Shaft_assembly v1</t>
-  </si>
-  <si>
     <t>Bondtech_Thumbscrew_assembly v1</t>
   </si>
   <si>
@@ -106,81 +88,13 @@
     <t>PTFE Tube Retainer</t>
   </si>
   <si>
-    <t>Retainer, PTFE Tube 4mm</t>
-  </si>
-  <si>
-    <t>Is included with certain BMG clones.
-If not, need to purchase separately</t>
-  </si>
-  <si>
     <t>6a</t>
   </si>
   <si>
-    <t>OPTION A: Bearing_MR95_7804K105</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-These are BIGGER bearings than the ones used in the BMG.
- To be used with Back Plate and cover marked with "BB"</t>
-    </r>
-  </si>
-  <si>
     <t>6b</t>
   </si>
   <si>
-    <t>OPTION B: Bearing_MR85 (from BMG)</t>
-  </si>
-  <si>
-    <t>Bearing 5X8X2.5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use MR85 5x8x2.5 bearings from BMG</t>
-    </r>
-  </si>
-  <si>
     <t>PTFE_Guide</t>
-  </si>
-  <si>
-    <t>1a</t>
   </si>
   <si>
     <t>bltouch</t>
@@ -346,32 +260,113 @@
     <t>HextrudORT_BODY_MOSQUITO</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">From BMG Extruder
-</t>
-    </r>
+    <t>Bondtech BMG parts</t>
+  </si>
+  <si>
+    <t>Bondetech mini gears 1.75/5.0</t>
+  </si>
+  <si>
+    <t>From BMG extruder or sold seperately</t>
+  </si>
+  <si>
+    <t>Gear set for filament size 1.75 mm, primary gear with inner diameter 5 mm, secondary gear with two needle bearings,M3x2 setscrew and one 3 x 20 mm shaft.</t>
+  </si>
+  <si>
+    <t>Bondtech</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/drivegear-kits/</t>
+  </si>
+  <si>
+    <t>Bondtech_Shaft_assembly</t>
+  </si>
+  <si>
+    <t>Replacement Shaft assembly for our Bondtech Mini Geared (BMG), SingleDirect and DualDirect extruders.
+It includes the set screw for primary 1.75/5.0 drive gear.</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/shaft-assembly/</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/thumbscrew-assembly/</t>
+  </si>
+  <si>
+    <t>Make From BMG arm pin
+3 X 20mm or sold seperately</t>
+  </si>
+  <si>
+    <t>From BMG Extruder 3 X 20</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/shafts/</t>
+  </si>
+  <si>
+    <t>Retainer, PTFE Tube 4mm
+From BMG or sold seperately</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/push-fit-collar/</t>
+  </si>
+  <si>
+    <t>OPTION A: Bearing_MR85 (from BMG)</t>
+  </si>
+  <si>
+    <t>Bearing 5X8X2.5 From BMG or sold seperately</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*NOTE*
-1 - Some BMG clone have a 4mm thick gear, they will not fit.
-  Verified sources are: 
-  a) Original BMG from BondTech
-  b) https://s.click.aliexpress.com/e/_Ao9yaZ
-2 -  Short side of the shaft might need to be filed down to avoid grinding against stepper motor.</t>
+      <t>OPTION A</t>
     </r>
-  </si>
-  <si>
-    <t>https://s.click.aliexpress.com/e/_Ao9yaZ</t>
-  </si>
-  <si>
-    <t>Triangle Lab</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use MR85 5x8x2.5 bearings from BMG</t>
+    </r>
+  </si>
+  <si>
+    <t>Mosquito HextrudORT</t>
+  </si>
+  <si>
+    <t>OPTION B: Bearing_MR95_7804K105</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+These are BIGGER bearings than the ones used in the BMG.
+ To be used with Back Plate and cover marked with "BB"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -481,14 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -496,8 +483,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6EE22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,9 +618,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,8 +676,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,13 +767,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1235075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1292225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -788,366 +810,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>536576</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>555626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>946151</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>958851</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="thumbnail_16.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3635376" y="2416176"/>
-          <a:ext cx="409575" cy="403225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="thumbnail_3.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5264B3-4630-46F6-B569-81C76894859A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="2044700"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="thumbnail_4.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AB4877-2EEA-4A09-AEEC-0E15B2DD4D1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="603250"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="thumbnail_5.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57534616-CBDF-48E5-ACC9-755C14C4D902}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="3486150"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="thumbnail_7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8225F38D-7A74-4ECB-A83D-FCDAA1059355}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="7810500"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="thumbnail_14.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC656D1-1AC5-4268-8B1E-D52505D15013}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="4927600"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1254125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="thumbnail_19.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC9C93C-0378-4CC2-9A5E-C67D0075A297}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3032125" y="6369050"/>
-          <a:ext cx="1076325" cy="1069975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>215144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1203325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="thumbnail_7.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D8BF7F-9D79-46A6-B241-44169BA7AE2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3082925" y="9286119"/>
-          <a:ext cx="993775" cy="985006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1292225</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1247775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1164,7 +834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1185,13 +855,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1208,7 +878,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1229,13 +899,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1252,7 +922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1273,13 +943,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,7 +966,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1317,13 +987,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1340,7 +1010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1361,13 +1031,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1298575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1384,7 +1054,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1405,13 +1075,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1254125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1428,7 +1098,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1449,13 +1119,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1406525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1472,7 +1142,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1493,13 +1163,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1343366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1516,7 +1186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1537,13 +1207,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1317625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1355725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1560,7 +1230,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1581,13 +1251,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1349375</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1352550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1604,7 +1274,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1625,13 +1295,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1384300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1648,7 +1318,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1665,12 +1335,320 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1254125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="thumbnail_4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21810DA8-7414-41FB-BB1D-4524AF1F1EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406775" y="809625"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1254125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="thumbnail_5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F5C55D-E1EC-4E03-BA4B-67734FBC805A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406775" y="3679825"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1254125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="thumbnail_14.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CC8180-C72C-46CB-9AD8-222B48C7A94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406775" y="5114925"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>215144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1203325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="thumbnail_7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F891DD59-6E7F-4BEE-9DBB-C3F65C0299CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="8019294"/>
+          <a:ext cx="993775" cy="988181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1463675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1352813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="thumbnail_1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5727C11-E104-479E-BEA1-9819CCFAE3E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2190750"/>
+          <a:ext cx="1285875" cy="1225813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1327055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="thumbnail_1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE44E3F-E4BE-4E70-A1E8-E013EAC485A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340101" y="6527800"/>
+          <a:ext cx="1225549" cy="1168305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1254125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="thumbnail_7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E05F8AB-AEF6-46F8-8173-C473863A5FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406775" y="9623425"/>
+          <a:ext cx="1073150" cy="1073150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A1:K23" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{494CDCE7-8EB1-486A-8076-EC1E59242533}" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <autoFilter ref="A1:K24" xr:uid="{4DBD3307-5F20-47E0-9C75-3A8478E4F27D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{8DD10BD1-F8F8-4CF0-8D4C-7F4FC801B3C7}" name="SubAssy"/>
     <tableColumn id="2" xr3:uid="{48F8A639-6252-46BC-8E09-3A18B47C9DCC}" name="Category"/>
@@ -2009,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2030,13 +2008,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="8" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2045,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2063,449 +2041,419 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>77</v>
-      </c>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" s="15">
         <v>1</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>77</v>
-      </c>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="G12" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>9</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H13" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="11">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H14" s="15">
         <v>2</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="11">
+        <v>13</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H15" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
@@ -2516,23 +2464,23 @@
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -2543,189 +2491,212 @@
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="18"/>
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="E20" s="13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="15">
-        <v>1</v>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="J21" s="18"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="15">
         <v>1</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="15">
         <v>1</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="17"/>
     </row>
+    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11">
+        <v>13</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="17"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{B8E05254-F43C-4F93-BF3A-79EFB7A7EBFC}"/>
-    <hyperlink ref="K2:K3" r:id="rId2" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{70EEC5A3-CBB5-446F-B3A9-CAA0290AE610}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{940C08FB-2102-40EF-BC23-8512C5E2705E}"/>
-    <hyperlink ref="K6:K7" r:id="rId4" display="https://s.click.aliexpress.com/e/_Ao9yaZ" xr:uid="{BCB230E6-71B7-4789-A1FA-42C6AFADE7FB}"/>
-    <hyperlink ref="K9" r:id="rId5" xr:uid="{021A1B57-C335-4B2F-8D27-C7AC8DB07F25}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{1281BCE0-03E2-4849-9D84-AF3B1BCB0610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId2"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\BOM_HextrudORT_Extruder_Mosquito.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
+++ b/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1A5F6-549A-4026-A5CD-5F91AE6A81F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F731B-E69F-4C78-84BE-65BEB4D253B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -314,30 +314,6 @@
     <t>Bearing 5X8X2.5 From BMG or sold seperately</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OPTION A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Use MR85 5x8x2.5 bearings from BMG</t>
-    </r>
-  </si>
-  <si>
     <t>Mosquito HextrudORT</t>
   </si>
   <si>
@@ -367,6 +343,34 @@
 These are BIGGER bearings than the ones used in the BMG.
  To be used with Back Plate and cover marked with "BB"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OPTION A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use MR85 5x8x2.5 bearings from BMG
+*Qty1 bearing will be used in the carriage BOM.  Qty 1 required in this assembly + 1 in carriage = 2 for the printer</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/ballbearing-5x8x2-5/</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1994,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2245,18 +2249,18 @@
         <v>33</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2281,7 +2285,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>39</v>
@@ -2293,7 +2297,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
@@ -2688,15 +2692,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{1281BCE0-03E2-4849-9D84-AF3B1BCB0610}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{BAE94295-F7AF-4EAA-99C6-7645E8F4B6A0}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{2451EF51-B72E-4EE1-99D8-3BE70372BAF9}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{33BDD9EE-A6FB-4A33-A8C4-B77004A3DAE1}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{5FF9E8BC-2132-41B9-A01E-E143D4F804B4}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{681D7838-4E9E-4F8D-8C21-B0E199A9E5DC}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{9368C4C3-6B88-47C1-9C52-5D8B154C6676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
   <webPublishItems count="1">
     <webPublishItem id="16836" divId="BOM_HextrudORT_Extruder_NOVA_16836" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\BOM_HextrudORT_Extruder_Mosquito.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
+++ b/files/HOTEND_EXTRUDER/MOSQUITO/BOM_HextrudORT_Extruder_Mosquito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\HOTEND_EXTRUDER\MOSQUITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F731B-E69F-4C78-84BE-65BEB4D253B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E7974-5609-4E13-A2AC-9818F7873A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -266,16 +266,10 @@
     <t>Bondetech mini gears 1.75/5.0</t>
   </si>
   <si>
-    <t>From BMG extruder or sold seperately</t>
-  </si>
-  <si>
     <t>Gear set for filament size 1.75 mm, primary gear with inner diameter 5 mm, secondary gear with two needle bearings,M3x2 setscrew and one 3 x 20 mm shaft.</t>
   </si>
   <si>
     <t>Bondtech</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/drivegear-kits/</t>
   </si>
   <si>
     <t>Bondtech_Shaft_assembly</t>
@@ -285,33 +279,10 @@
 It includes the set screw for primary 1.75/5.0 drive gear.</t>
   </si>
   <si>
-    <t>https://www.bondtech.se/product/shaft-assembly/</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/thumbscrew-assembly/</t>
-  </si>
-  <si>
-    <t>Make From BMG arm pin
-3 X 20mm or sold seperately</t>
-  </si>
-  <si>
     <t>From BMG Extruder 3 X 20</t>
   </si>
   <si>
-    <t>https://www.bondtech.se/product/shafts/</t>
-  </si>
-  <si>
-    <t>Retainer, PTFE Tube 4mm
-From BMG or sold seperately</t>
-  </si>
-  <si>
-    <t>https://www.bondtech.se/product/push-fit-collar/</t>
-  </si>
-  <si>
     <t>OPTION A: Bearing_MR85 (from BMG)</t>
-  </si>
-  <si>
-    <t>Bearing 5X8X2.5 From BMG or sold seperately</t>
   </si>
   <si>
     <t>Mosquito HextrudORT</t>
@@ -370,7 +341,16 @@
     </r>
   </si>
   <si>
-    <t>https://www.bondtech.se/product/ballbearing-5x8x2-5/</t>
+    <t>Included in BMG Internals Set for HextrudORT</t>
+  </si>
+  <si>
+    <t>(BUY) KIT</t>
+  </si>
+  <si>
+    <t>https://www.bondtech.se/product/bmg-internals-set-for-hextrudort/</t>
+  </si>
+  <si>
+    <t>2*</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1974,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,22 +2055,22 @@
         <v>63</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H3" s="15">
         <v>1</v>
       </c>
       <c r="I3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="K3" s="19" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2105,25 +2085,25 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2141,10 +2121,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
@@ -2153,10 +2133,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2174,22 +2154,22 @@
         <v>20</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2207,10 +2187,10 @@
         <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="15">
         <v>1</v>
@@ -2219,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>76</v>
@@ -2237,30 +2217,30 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -2285,7 +2265,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>39</v>
@@ -2297,7 +2277,7 @@
         <v>33</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="17"/>
@@ -2692,12 +2672,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{BAE94295-F7AF-4EAA-99C6-7645E8F4B6A0}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{2451EF51-B72E-4EE1-99D8-3BE70372BAF9}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{33BDD9EE-A6FB-4A33-A8C4-B77004A3DAE1}"/>
-    <hyperlink ref="K6" r:id="rId4" xr:uid="{5FF9E8BC-2132-41B9-A01E-E143D4F804B4}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{681D7838-4E9E-4F8D-8C21-B0E199A9E5DC}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{9368C4C3-6B88-47C1-9C52-5D8B154C6676}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{E0C88333-1823-4577-B7BC-8C13C5B46F94}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{58E9963C-1E57-45B9-982A-3071F78F4BBB}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{60047B98-A3B2-49AD-9780-E74F77E18A8E}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{5C875D5D-46FF-433E-A8FF-E760DB617355}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{56607B69-00E7-407F-B419-FD1A31536E49}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{97AD3642-A2F0-44BC-BEAC-6F2E3A486FB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>
